--- a/refs/pull/40/merge/StructureDefinition-svc-immunization.xlsx
+++ b/refs/pull/40/merge/StructureDefinition-svc-immunization.xlsx
@@ -1209,7 +1209,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-practitioner)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-practitioner|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
 </t>
   </si>
   <si>
